--- a/result/Навчання та перевірка знань з пожежно-технічного мінімуму.xlsx
+++ b/result/Навчання та перевірка знань з пожежно-технічного мінімуму.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Вопрос</t>
   </si>
@@ -23,6 +23,392 @@
   </si>
   <si>
     <t>Правильний ответ</t>
+  </si>
+  <si>
+    <t>Де і як має зберігатися спецодяг працюючих з лаками, фарбами та іншими легкозаймистими горючими рідинами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Складеним у побутових приміщеннях
+В розвішаному вигляді в металевих шафах, встановлених у спеціально відведених для цієї мети приміщеннях
+У приміщенні пожежного посту на об’єкті
+Здаватися на спеціальний склад
+</t>
+  </si>
+  <si>
+    <t>В розвішаному вигляді в металевих шафах, встановлених у спеціально відведених для цієї мети приміщеннях</t>
+  </si>
+  <si>
+    <t>При якій максимальній кількості людей, що одночасно перебувають в приміщенні, двері з останнього можна влаштовувати з відчиненням усередину?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не більше 30 осіб
+Не більше 25 осіб
+Не більше 15 осіб
+</t>
+  </si>
+  <si>
+    <t>Не більше 15 осіб</t>
+  </si>
+  <si>
+    <t>Який основний нормативно-правовий акт діє в Україні стосовно пожежної безпеки:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закон „Про пожежну безпеку”
+Конституція України
+Наказ МВС України від 07.12.96
+Державні Стандарти України
+</t>
+  </si>
+  <si>
+    <t>Закон „Про пожежну безпеку”</t>
+  </si>
+  <si>
+    <t>Дайте визначення „пожежі”:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">контрольоване горіння поза спеціальним вогнищем
+активне окислення органічних та синтетичних сполук
+неконтрольоване горіння поза спеціальним вогнищем, що розповсюджується у просторі і часі
+стан об’єкта, за якого з регламентованою імовірністю є можливість загорання
+</t>
+  </si>
+  <si>
+    <t>неконтрольоване горіння поза спеціальним вогнищем, що розповсюджується у просторі і часі</t>
+  </si>
+  <si>
+    <t>Якою має бути відстань від приладів електроопалення до горючих матеріалів і будівельних конструкцій?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не менше 0,15 м
+Не менше 0,25 м
+Не менше 0,30 м
+Не менше 0,50 м
+</t>
+  </si>
+  <si>
+    <t>Не менше 0,25 м</t>
+  </si>
+  <si>
+    <t>Чи можна встановлювати на вікна приміщень, де перебувають люди, металеві грати?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не можна
+Можна, на перших поверхах будівель і споруд
+Можна, якщо разом з людьми у приміщенні зберігаються великі матеріальні цінності
+Можна, у разі необхідності, якщо грати розкриваються, розсуваються або знімаються
+</t>
+  </si>
+  <si>
+    <t>Можна, у разі необхідності, якщо грати розкриваються, розсуваються або знімаються</t>
+  </si>
+  <si>
+    <t>Особливість приведення в дію порошкового вогнегасника:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">перевернути догори дном
+тримати горизонтально
+сильно встряхнути, перевірити на сипучість
+спрямувати раструб на пожежу
+</t>
+  </si>
+  <si>
+    <t>сильно встряхнути, перевірити на сипучість</t>
+  </si>
+  <si>
+    <t>Назвіть найпоширенішу причину пожеж в електроустаткуванні?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коротке замикання
+Великі перехідні опори
+Перевантаження
+Розряди статистичної електрики
+</t>
+  </si>
+  <si>
+    <t>Коротке замикання</t>
+  </si>
+  <si>
+    <t>Що слід вважати пожежею?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неконтрольоване горіння поза межами спеціального вогнища
+Високотемпературний теплообмінний процес
+Стихійне лихо
+Будь які випадки горіння
+</t>
+  </si>
+  <si>
+    <t>Неконтрольоване горіння поза межами спеціального вогнища</t>
+  </si>
+  <si>
+    <t>Який вогнегасник необхідно розмістити у приміщенні бухгалтерії управління підприємством, де зберігаються цінні папери і може загорітися обладнання під напругою?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВХП-10
+ВВК -2
+ВПП-5
+ВПП-2
+</t>
+  </si>
+  <si>
+    <t>ВВК -2</t>
+  </si>
+  <si>
+    <t>На якій термін може надаватися додаткова відпустка із збереженням заробітної плати членам добровільних пожежних дружин (команд)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">До 3 робочих днів на рік
+До 6 робочих днів на рік
+До 10 робочих днів на рік
+До 123 робочих днів на рік
+</t>
+  </si>
+  <si>
+    <t>До 10 робочих днів на рік</t>
+  </si>
+  <si>
+    <t>Яка відстань допускається між газовою плитою та неізольованою стіною (перегородкою) з горючих матеріалів?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не менше 0,2 м
+Не менше 0,5 м
+Не менше 1 м
+Не менше 1,2 м
+Не менше 1,5 м
+</t>
+  </si>
+  <si>
+    <t>Не менше 1 м</t>
+  </si>
+  <si>
+    <t>Що не заборонено гасити водою?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">електроустановки під напругою
+речовини, що горять без доступу кисню
+горючі речовини, в яких питома вага менша  за воду
+тверді горючі матеріали
+</t>
+  </si>
+  <si>
+    <t>тверді горючі матеріали</t>
+  </si>
+  <si>
+    <t>Яка найбільш поширена причина пожеж в Україні?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Підпали
+Необережне поводження з вогнем
+Тепловий прояв електричного струму
+Самозаймання
+</t>
+  </si>
+  <si>
+    <t>Необережне поводження з вогнем</t>
+  </si>
+  <si>
+    <t>Як часто потрібно розгортати та згортати пожежні рукави, які складені та приєднані до кранів:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">раз на 1 рік
+кожен квартал
+не частіше одного разу на рік
+не рідше одного разу на півроку
+</t>
+  </si>
+  <si>
+    <t>не рідше одного разу на півроку</t>
+  </si>
+  <si>
+    <t>Яка максимальна кількість людей може перебувати у приміщенні, що має один евакуаційний вихід?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 осіб
+25 осіб
+50 осіб
+75 осіб
+100 осіб
+</t>
+  </si>
+  <si>
+    <t>50 осіб</t>
+  </si>
+  <si>
+    <t>Для чого призначений піногенератор:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">для отримання хімічної піни
+для гасіння пожеж
+для отримання повітряно-механічної піни
+для зберігання порошку
+</t>
+  </si>
+  <si>
+    <t>для отримання хімічної піни</t>
+  </si>
+  <si>
+    <t>Якими вогнегасниками рекомендується захищати приміщення, де встановлені електронно-обчислювальні машини?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Порошковим
+Вуглекислотним
+Повітряно-пінними
+Хімічно-пінними
+</t>
+  </si>
+  <si>
+    <t>Вуглекислотним</t>
+  </si>
+  <si>
+    <t>Можна застосувати у будівництві у будівництві матеріали та речовини, на які не має даних щодо пожежної безпеки?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можна
+Не можна
+Можна, при наявності пожежної сигналізації
+Можна, по узгодженню з адміністрацією
+</t>
+  </si>
+  <si>
+    <t>Не можна</t>
+  </si>
+  <si>
+    <t>Чи дозволяється застосовування електричних опалювальних приладів у приміщеннях категорій за вибухонебезпекою А та Б?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дозволяється
+Дозволяється, якщо ці прилади закритого виконання
+Дозволяється, якщо ці прилади промислового виробництва, а не саморобні
+Дозволяється в будь-якому випадку
+</t>
+  </si>
+  <si>
+    <t>Не дозволяється</t>
+  </si>
+  <si>
+    <t>Як часто треба розгортати та згортати наново пожежні рукава внутрішніх пожежних кранів?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не рідше одного разу на 6 місяців
+Не рідше одного разу на 1 рік
+Не рідше одного разу на 2 роки
+</t>
+  </si>
+  <si>
+    <t>Не рідше одного разу на 6 місяців</t>
+  </si>
+  <si>
+    <t>Вкажіть вогнегасну речовину, якою не можна гасити горючі та легкозаймисті речовини</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пісок
+Порошок
+Піна
+Вода
+</t>
+  </si>
+  <si>
+    <t>Вода</t>
+  </si>
+  <si>
+    <t>Яку максимальну кількість пального можна зберігати в індивідуальних гаражах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не більше 100 л
+Не більше 50 л
+Не більше 40 л
+Не більше 20 л
+</t>
+  </si>
+  <si>
+    <t>Не більше 40 л</t>
+  </si>
+  <si>
+    <t>Чи дозволяється зберігання балонів з газами у підвальних приміщеннях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дозволяється, якщо підвальне приміщення має самостійний вихід назовні
+Дозволяється, якщо є письмовий дозвіл адміністрації
+Дозволяється, якщо перекриття між підвальним приміщенням і першим поверхом виконано з негорючих матеріалів
+Не дозволяється
+</t>
+  </si>
+  <si>
+    <t>Якою має бути висота від рівня підлоги до нижнього торця вогнегасника в разі навішування останнього на вертикальні конструкції?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не більше 1 м
+Не більше 1,5 м
+Не більше 1,8 м
+Не більше 2 м
+</t>
+  </si>
+  <si>
+    <t>Не більше 1,5 м</t>
+  </si>
+  <si>
+    <t>Вкажіть обов’язки громадян щодо забезпечення пожежної безпеки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Здійснювати контроль за дотримання протипожежних вимог
+Виконувати правила пожежної безпеки, забезпечувати будівлі, які їм належать на праві особистої власності, первинними засобами пожежогасіння і протипожежним інвентарем
+Гасити пожежі
+Виховувати у дітей обережність у поводженні з вогнем
+</t>
+  </si>
+  <si>
+    <t>Виконувати правила пожежної безпеки, забезпечувати будівлі, які їм належать на праві особистої власності, первинними засобами пожежогасіння і протипожежним інвентарем</t>
+  </si>
+  <si>
+    <t>Визначте послідовність телефонного повідомлення про пожежу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вказати кількість поверхів будівлі
+Повідомити своє прізвище
+Вказати наявність людей
+Назвати адресу об’єкта
+</t>
+  </si>
+  <si>
+    <t>Назвати адресу об’єкта</t>
+  </si>
+  <si>
+    <t>Як часто треба проводити повторний протипожежний інструктаж?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раз у квартал
+Не рідше одного разу в три роки
+Не рідше одного разу у два роки
+Не рідше одного разу в рік
+Раз у півроку
+</t>
+  </si>
+  <si>
+    <t>Не рідше одного разу в рік</t>
+  </si>
+  <si>
+    <t>Визначте послідовність дій у разі виникнення пожежі (ознак горіння)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Якщо пожежа виникла на підприємстві, повідомити про неї керівника чи відповідну компетентну особу та (або) чергового по об’єкту
+Негайно повідомити по телефону про це пожежну охорону
+У разі необхідності викликати інші аварійно-рятувальні служби (медичну, газорятувальну тощо)
+</t>
+  </si>
+  <si>
+    <t>Негайно повідомити по телефону про це пожежну охорону</t>
+  </si>
+  <si>
+    <t>Де слід здійснювати складання і розведення всіх видів фарб і лаків?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Біля місця проведення фарбувальних робіт
+На складі лакофарбових матеріалів
+На відкритому майданчику або у спеціально виділеному ізольованому приміщенні
+</t>
+  </si>
+  <si>
+    <t>На відкритому майданчику або у спеціально виділеному ізольованому приміщенні</t>
   </si>
 </sst>
 </file>
@@ -354,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,6 +757,336 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
